--- a/Document/TPS.xlsx
+++ b/Document/TPS.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="4" r:id="rId1"/>
     <sheet name="Character" sheetId="1" r:id="rId2"/>
-    <sheet name="Skill" sheetId="2" r:id="rId3"/>
-    <sheet name="Item" sheetId="3" r:id="rId4"/>
+    <sheet name="Camera" sheetId="5" r:id="rId3"/>
+    <sheet name="Skill" sheetId="2" r:id="rId4"/>
+    <sheet name="Item" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +74,42 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shake_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shake_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shake_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shake_Spd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max_Shake_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lacal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1147,6 +1184,121 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000001</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1000002</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.35</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -1520,7 +1672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
